--- a/MedicalLink/Templates/BC_XuatNhapTonTuTruc.xlsx
+++ b/MedicalLink/Templates/BC_XuatNhapTonTuTruc.xlsx
@@ -62,9 +62,6 @@
     <t>Đơn vị tính</t>
   </si>
   <si>
-    <t>SL cơ sổ tủ trực</t>
-  </si>
-  <si>
     <t>SL tồn kho</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MEDICINECODE</t>
+  </si>
+  <si>
+    <t>SL cơ số tủ trực</t>
   </si>
 </sst>
 </file>
@@ -100,7 +100,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -261,6 +261,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,12 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -587,7 +587,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,39 +604,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="16"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -653,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -667,43 +667,43 @@
         <v>3</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="28">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22">
         <f t="shared" ref="E8:F8" si="0">SUM(E7:E7)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="22">
         <f>SUM(G7:G7)</f>
         <v>0</v>
       </c>
@@ -711,10 +711,10 @@
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/MedicalLink/Templates/BC_XuatNhapTonTuTruc.xlsx
+++ b/MedicalLink/Templates/BC_XuatNhapTonTuTruc.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -90,17 +90,48 @@
   </si>
   <si>
     <t>SL cơ số tủ trực</t>
+  </si>
+  <si>
+    <t>Hạn sử dụng</t>
+  </si>
+  <si>
+    <t>Số lô</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].HANSUDUNG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOLO</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].ISLOGOC</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>lo goc</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=IF(K{r}=1,E{r},0)</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=IF(K{r}=1,F{r},0)</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=IF(K{r}=1,G{r},0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -166,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -204,12 +235,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -252,21 +333,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,51 +707,60 @@
     <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="8.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="28" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
@@ -658,65 +779,120 @@
       <c r="F6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="H6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="28" t="s">
         <v>18</v>
       </c>
+      <c r="K7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22">
-        <f t="shared" ref="E8:F8" si="0">SUM(E7:E7)</f>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="21">
+        <f>L8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="22">
-        <f t="shared" si="0"/>
+      <c r="F8" s="21">
+        <f t="shared" ref="F8" si="0">M8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="22">
-        <f>SUM(G7:G7)</f>
+      <c r="G8" s="21">
+        <f>N8</f>
         <v>0</v>
       </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33">
+        <f>SUM(L7:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="33">
+        <f t="shared" ref="M8:N8" si="1">SUM(M7:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="F10:G10"/>
@@ -726,14 +902,14 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:G7">
+  <conditionalFormatting sqref="A7:I7">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$H7=1</formula>
+      <formula>$J7=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_XuatNhapTonTuTruc.xlsx
+++ b/MedicalLink/Templates/BC_XuatNhapTonTuTruc.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,9 +50,6 @@
     <t>&amp;=[DATA].MEDICINESTORENAME</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>Mã thuốc/vật tư</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>&amp;=&amp;=IF(K{r}=1,G{r},0)</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -765,43 +765,43 @@
         <v>0</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="G6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="I6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="32" t="s">
         <v>11</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -809,43 +809,43 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="G7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="K7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>25</v>
-      </c>
       <c r="L7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="N7" s="29" t="s">
         <v>29</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">

--- a/MedicalLink/Templates/BC_XuatNhapTonTuTruc.xlsx
+++ b/MedicalLink/Templates/BC_XuatNhapTonTuTruc.xlsx
@@ -699,7 +699,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
